--- a/MDA-MB-231-Cell-Count-Data/GH1909_UTCtrl_working_mod_8_22.xlsx
+++ b/MDA-MB-231-Cell-Count-Data/GH1909_UTCtrl_working_mod_8_22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Documents\MATLAB\2020 Incucyte Data Cal-Val\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Desktop\Cell Count Data (Final MATLAB Format) v2\231\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +339,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:G214"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -353,22 +349,22 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1737</v>
+        <v>1577.0716112531968</v>
       </c>
       <c r="C1">
-        <v>2019</v>
+        <v>1710.8532154731977</v>
       </c>
       <c r="D1">
-        <v>1864</v>
+        <v>1590.5043837029398</v>
       </c>
       <c r="E1">
-        <v>1699</v>
+        <v>1394.9089356346635</v>
       </c>
       <c r="F1">
-        <v>1814</v>
+        <v>1477.1680497925313</v>
       </c>
       <c r="G1">
-        <v>1883</v>
+        <v>1563.1263598326361</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -376,22 +372,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1750</v>
+        <v>1588.8746803069052</v>
       </c>
       <c r="C2">
-        <v>2039</v>
+        <v>1727.8007460870977</v>
       </c>
       <c r="D2">
-        <v>1908</v>
+        <v>1628.0484785972151</v>
       </c>
       <c r="E2">
-        <v>1749</v>
+        <v>1435.9598166127291</v>
       </c>
       <c r="F2">
-        <v>1900</v>
+        <v>1547.1991701244815</v>
       </c>
       <c r="G2">
-        <v>1919</v>
+        <v>1593.0108786610879</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -399,22 +395,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1833</v>
+        <v>1664.23273657289</v>
       </c>
       <c r="C3">
-        <v>2097</v>
+        <v>1776.9485848674074</v>
       </c>
       <c r="D3">
-        <v>2018</v>
+        <v>1721.9087158329037</v>
       </c>
       <c r="E3">
-        <v>1782</v>
+        <v>1463.0533980582522</v>
       </c>
       <c r="F3">
-        <v>1911</v>
+        <v>1556.1566390041494</v>
       </c>
       <c r="G3">
-        <v>1971</v>
+        <v>1636.1774058577407</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -422,22 +418,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1882</v>
+        <v>1708.7212276214832</v>
       </c>
       <c r="C4">
-        <v>2188</v>
+        <v>1854.059849160652</v>
       </c>
       <c r="D4">
-        <v>2037</v>
+        <v>1738.1209386281589</v>
       </c>
       <c r="E4">
-        <v>1862</v>
+        <v>1528.7348076231569</v>
       </c>
       <c r="F4">
-        <v>2023</v>
+        <v>1647.3599585062241</v>
       </c>
       <c r="G4">
-        <v>2044</v>
+        <v>1696.7765690376571</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -445,22 +441,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1993</v>
+        <v>1809.5012787723783</v>
       </c>
       <c r="C5">
-        <v>2300</v>
+        <v>1948.9660205984917</v>
       </c>
       <c r="D5">
-        <v>2163</v>
+        <v>1845.6335740072202</v>
       </c>
       <c r="E5">
-        <v>1957</v>
+        <v>1606.7314814814813</v>
       </c>
       <c r="F5">
-        <v>2093</v>
+        <v>1704.3620331950208</v>
       </c>
       <c r="G5">
-        <v>2141</v>
+        <v>1777.2987447698745</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -468,22 +464,22 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>2086</v>
+        <v>1893.938618925831</v>
       </c>
       <c r="C6">
-        <v>2445</v>
+        <v>2071.8356175492663</v>
       </c>
       <c r="D6">
-        <v>2257</v>
+        <v>1925.8414130995359</v>
       </c>
       <c r="E6">
-        <v>2072</v>
+        <v>1701.1485077310317</v>
       </c>
       <c r="F6">
-        <v>2195</v>
+        <v>1787.4221991701245</v>
       </c>
       <c r="G6">
-        <v>2295</v>
+        <v>1905.1380753138076</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -491,22 +487,22 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2186</v>
+        <v>1984.7314578005114</v>
       </c>
       <c r="C7">
-        <v>2531</v>
+        <v>2144.7099991890359</v>
       </c>
       <c r="D7">
-        <v>2352</v>
+        <v>2006.9025270758123</v>
       </c>
       <c r="E7">
-        <v>2150</v>
+        <v>1765.1878820568138</v>
       </c>
       <c r="F7">
-        <v>2261</v>
+        <v>1841.1670124481329</v>
       </c>
       <c r="G7">
-        <v>2365</v>
+        <v>1963.2468619246863</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -514,22 +510,22 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2271</v>
+        <v>2061.9053708439897</v>
       </c>
       <c r="C8">
-        <v>2612</v>
+        <v>2213.3474981753307</v>
       </c>
       <c r="D8">
-        <v>2431</v>
+        <v>2074.3112429087159</v>
       </c>
       <c r="E8">
-        <v>2229</v>
+        <v>1830.0482740021573</v>
       </c>
       <c r="F8">
-        <v>2358</v>
+        <v>1920.155601659751</v>
       </c>
       <c r="G8">
-        <v>2467</v>
+        <v>2047.9196652719666</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -537,22 +533,22 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>2376</v>
+        <v>2157.237851662404</v>
       </c>
       <c r="C9">
-        <v>2680</v>
+        <v>2270.9691022625902</v>
       </c>
       <c r="D9">
-        <v>2519</v>
+        <v>2149.3994326972665</v>
       </c>
       <c r="E9">
-        <v>2365</v>
+        <v>1941.7066702624952</v>
       </c>
       <c r="F9">
-        <v>2491</v>
+        <v>2028.4595435684648</v>
       </c>
       <c r="G9">
-        <v>2551</v>
+        <v>2117.6502092050209</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -560,22 +556,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>2530</v>
+        <v>2297.0588235294117</v>
       </c>
       <c r="C10">
-        <v>2838</v>
+        <v>2404.8545941123998</v>
       </c>
       <c r="D10">
-        <v>2624</v>
+        <v>2238.9932955131512</v>
       </c>
       <c r="E10">
-        <v>2426</v>
+        <v>1991.788745055735</v>
       </c>
       <c r="F10">
-        <v>2662</v>
+        <v>2167.7074688796683</v>
       </c>
       <c r="G10">
-        <v>2693</v>
+        <v>2235.5280334728036</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -583,22 +579,22 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>2695</v>
+        <v>2446.8670076726339</v>
       </c>
       <c r="C11">
-        <v>3026</v>
+        <v>2564.1613818830592</v>
       </c>
       <c r="D11">
-        <v>2877</v>
+        <v>2454.8718411552345</v>
       </c>
       <c r="E11">
-        <v>2690</v>
+        <v>2208.5373966199204</v>
       </c>
       <c r="F11">
-        <v>2815</v>
+        <v>2292.2977178423239</v>
       </c>
       <c r="G11">
-        <v>2946</v>
+        <v>2445.5497907949793</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -606,22 +602,22 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>2869</v>
+        <v>2604.8465473145779</v>
       </c>
       <c r="C12">
-        <v>3226</v>
+        <v>2733.6366880220585</v>
       </c>
       <c r="D12">
-        <v>3019</v>
+        <v>2576.0368746776689</v>
       </c>
       <c r="E12">
-        <v>2808</v>
+        <v>2305.4174757281548</v>
       </c>
       <c r="F12">
-        <v>2960</v>
+        <v>2410.3734439834025</v>
       </c>
       <c r="G12">
-        <v>3112</v>
+        <v>2583.3506276150629</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -629,22 +625,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>3078</v>
+        <v>2794.6035805626598</v>
       </c>
       <c r="C13">
-        <v>3451</v>
+        <v>2924.2964074284328</v>
       </c>
       <c r="D13">
-        <v>3258</v>
+        <v>2779.9695719443012</v>
       </c>
       <c r="E13">
-        <v>3020</v>
+        <v>2479.4732110751524</v>
       </c>
       <c r="F13">
-        <v>3131</v>
+        <v>2549.6213692946058</v>
       </c>
       <c r="G13">
-        <v>3303</v>
+        <v>2741.9046025104603</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -652,22 +648,22 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>3250</v>
+        <v>2950.7672634271098</v>
       </c>
       <c r="C14">
-        <v>3628</v>
+        <v>3074.2820533614467</v>
       </c>
       <c r="D14">
-        <v>3509</v>
+        <v>2994.141567818463</v>
       </c>
       <c r="E14">
-        <v>3231</v>
+        <v>2652.7079288025889</v>
       </c>
       <c r="F14">
-        <v>3371</v>
+        <v>2745.0570539419086</v>
       </c>
       <c r="G14">
-        <v>3545</v>
+        <v>2942.7949790794978</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -675,22 +671,22 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>3496</v>
+        <v>3174.1176470588234</v>
       </c>
       <c r="C15">
-        <v>3866</v>
+        <v>3275.9576676668562</v>
       </c>
       <c r="D15">
-        <v>3674</v>
+        <v>3134.9319236719957</v>
       </c>
       <c r="E15">
-        <v>3410</v>
+        <v>2799.6700827040631</v>
       </c>
       <c r="F15">
-        <v>3623</v>
+        <v>2950.264522821577</v>
       </c>
       <c r="G15">
-        <v>3713</v>
+        <v>3082.256066945607</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -698,22 +694,22 @@
         <v>44.966666666666697</v>
       </c>
       <c r="B16">
-        <v>3674</v>
+        <v>3335.7289002557541</v>
       </c>
       <c r="C16">
-        <v>4063</v>
+        <v>3442.8908442137704</v>
       </c>
       <c r="D16">
-        <v>3911</v>
+        <v>3337.1580711707065</v>
       </c>
       <c r="E16">
-        <v>3606</v>
+        <v>2960.5895361380794</v>
       </c>
       <c r="F16">
-        <v>3702</v>
+        <v>3014.5954356846473</v>
       </c>
       <c r="G16">
-        <v>3923</v>
+        <v>3256.5824267782427</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -721,22 +717,22 @@
         <v>47.966666666666697</v>
       </c>
       <c r="B17">
-        <v>3858</v>
+        <v>3502.7877237851658</v>
       </c>
       <c r="C17">
-        <v>4196</v>
+        <v>3555.5919227962049</v>
       </c>
       <c r="D17">
-        <v>4021</v>
+        <v>3431.0183084063951</v>
       </c>
       <c r="E17">
-        <v>3826</v>
+        <v>3141.2134124415675</v>
       </c>
       <c r="F17">
-        <v>3933</v>
+        <v>3202.7022821576766</v>
       </c>
       <c r="G17">
-        <v>4083</v>
+        <v>3389.4025104602511</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -744,22 +740,22 @@
         <v>50.966666666666697</v>
       </c>
       <c r="B18">
-        <v>4109</v>
+        <v>3730.6777493606137</v>
       </c>
       <c r="C18">
-        <v>4480</v>
+        <v>3796.246857513584</v>
       </c>
       <c r="D18">
-        <v>4230</v>
+        <v>3609.3527591542033</v>
       </c>
       <c r="E18">
-        <v>4028</v>
+        <v>3307.0589715929518</v>
       </c>
       <c r="F18">
-        <v>4144</v>
+        <v>3374.5228215767638</v>
       </c>
       <c r="G18">
-        <v>4261</v>
+        <v>3537.1648535564855</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -767,22 +763,22 @@
         <v>53.966666666666697</v>
       </c>
       <c r="B19">
-        <v>4317</v>
+        <v>3919.5268542199487</v>
       </c>
       <c r="C19">
-        <v>4740</v>
+        <v>4016.564755494283</v>
       </c>
       <c r="D19">
-        <v>4467</v>
+        <v>3811.5789066529137</v>
       </c>
       <c r="E19">
-        <v>4352</v>
+        <v>3573.0686803308158</v>
       </c>
       <c r="F19">
-        <v>4411</v>
+        <v>3591.9450207468881</v>
       </c>
       <c r="G19">
-        <v>4635</v>
+        <v>3847.6317991631799</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -790,22 +786,22 @@
         <v>56.966666666666697</v>
       </c>
       <c r="B20">
-        <v>4599</v>
+        <v>4175.5626598465469</v>
       </c>
       <c r="C20">
-        <v>4979</v>
+        <v>4219.0877463303868</v>
       </c>
       <c r="D20">
-        <v>4683</v>
+        <v>3995.8862815884477</v>
       </c>
       <c r="E20">
-        <v>4572</v>
+        <v>3753.6925566343039</v>
       </c>
       <c r="F20">
-        <v>4628</v>
+        <v>3768.6514522821576</v>
       </c>
       <c r="G20">
-        <v>4887</v>
+        <v>4056.8234309623431</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -813,22 +809,22 @@
         <v>59.966666666666697</v>
       </c>
       <c r="B21">
-        <v>4836</v>
+        <v>4390.7416879795392</v>
       </c>
       <c r="C21">
-        <v>5342</v>
+        <v>4526.6854269726709</v>
       </c>
       <c r="D21">
-        <v>4999</v>
+        <v>4265.5211449200615</v>
       </c>
       <c r="E21">
-        <v>4855</v>
+        <v>3986.0405429701541</v>
       </c>
       <c r="F21">
-        <v>4923</v>
+        <v>4008.8744813278008</v>
       </c>
       <c r="G21">
-        <v>5170</v>
+        <v>4291.7489539748958</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -836,22 +832,22 @@
         <v>62.966666666666697</v>
       </c>
       <c r="B22">
-        <v>5126</v>
+        <v>4654.0409207161119</v>
       </c>
       <c r="C22">
-        <v>5669</v>
+        <v>4803.7775525099341</v>
       </c>
       <c r="D22">
-        <v>5331</v>
+        <v>4548.8084063950491</v>
       </c>
       <c r="E22">
-        <v>5151</v>
+        <v>4229.0617583603016</v>
       </c>
       <c r="F22">
-        <v>5280</v>
+        <v>4299.5850622406642</v>
       </c>
       <c r="G22">
-        <v>5474</v>
+        <v>4544.1071129707116</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -859,22 +855,22 @@
         <v>65.966666666666697</v>
       </c>
       <c r="B23">
-        <v>5358</v>
+        <v>4864.6803069053703</v>
       </c>
       <c r="C23">
-        <v>6000</v>
+        <v>5084.2591841699787</v>
       </c>
       <c r="D23">
-        <v>5655</v>
+        <v>4825.2694687983494</v>
       </c>
       <c r="E23">
-        <v>5425</v>
+        <v>4454.0205861201002</v>
       </c>
       <c r="F23">
-        <v>5616</v>
+        <v>4573.1950207468881</v>
       </c>
       <c r="G23">
-        <v>5808</v>
+        <v>4821.3690376569039</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
